--- a/Documentos/Cronograma de Actividades_V.1.1.2.xlsx
+++ b/Documentos/Cronograma de Actividades_V.1.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\GitHub\Documentation\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{820C39F9-1011-4657-BCC4-5BCC5D88A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FCE82-ED67-46AF-96DD-A24E5827DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B9DA602-071F-4FD7-9752-666F02B18691}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_Hlk210645862" localSheetId="0">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3675,7 +3674,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentos/Cronograma de Actividades_V.1.1.2.xlsx
+++ b/Documentos/Cronograma de Actividades_V.1.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Documents\GitHub\Documentation\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FCE82-ED67-46AF-96DD-A24E5827DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C277A8-D678-4715-A429-C70E29651ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B9DA602-071F-4FD7-9752-666F02B18691}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t xml:space="preserve">4.2 Fase de Diseño </t>
   </si>
   <si>
-    <t>4.1 FASE DE ANÁLISIS</t>
-  </si>
-  <si>
     <t>1.1 Estado del arte</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>1.3.2 Objetivos Especificos</t>
+  </si>
+  <si>
+    <t>4.1 Fase de análisis</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1193,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5395740" y="2285345"/>
+          <a:off x="5374120" y="2294448"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1418,7 +1418,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5398461" y="2480723"/>
+          <a:off x="5376841" y="2490584"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1533,7 +1533,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5396194" y="2655238"/>
+          <a:off x="5374574" y="2665858"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1648,7 +1648,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5398915" y="2850617"/>
+          <a:off x="5377295" y="2861996"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1763,7 +1763,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5396194" y="3024678"/>
+          <a:off x="5374574" y="3036815"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1878,7 +1878,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5398915" y="3220056"/>
+          <a:off x="5377295" y="3232952"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -1993,7 +1993,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5396648" y="3394571"/>
+          <a:off x="5375028" y="3408225"/>
           <a:ext cx="546595" cy="88855"/>
           <a:chOff x="4925860" y="1882406"/>
           <a:chExt cx="1150922" cy="61869"/>
@@ -2084,14 +2084,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>84666</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33717</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>58730</xdr:rowOff>
+      <xdr:rowOff>53947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>574793</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82132</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>129822</xdr:rowOff>
     </xdr:to>
@@ -2108,10 +2108,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3615886" y="3589950"/>
-          <a:ext cx="2330078" cy="71092"/>
+          <a:off x="5383268" y="3599580"/>
+          <a:ext cx="654905" cy="75875"/>
           <a:chOff x="4925860" y="1882406"/>
-          <a:chExt cx="1150922" cy="61869"/>
+          <a:chExt cx="1403545" cy="61869"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2168,7 +2168,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4925860" y="1882406"/>
-            <a:ext cx="1150180" cy="3861"/>
+            <a:ext cx="1403545" cy="4380"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -2199,10 +2199,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>84906</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13486</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>68888</xdr:rowOff>
+      <xdr:rowOff>40460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -2223,8 +2223,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3616126" y="3785961"/>
-          <a:ext cx="7828888" cy="70385"/>
+          <a:off x="5363037" y="3772705"/>
+          <a:ext cx="5998912" cy="98813"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
@@ -2341,8 +2341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5396154" y="3952894"/>
-          <a:ext cx="1776274" cy="74951"/>
+          <a:off x="5374534" y="3968824"/>
+          <a:ext cx="1762620" cy="74951"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
@@ -2459,8 +2459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5407256" y="4387028"/>
-          <a:ext cx="1776274" cy="74951"/>
+          <a:off x="5385636" y="4403717"/>
+          <a:ext cx="1762620" cy="74951"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
@@ -2553,16 +2553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>42140</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57032</xdr:rowOff>
+      <xdr:rowOff>48373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>591780</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>131983</xdr:rowOff>
+      <xdr:rowOff>123324</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2577,8 +2577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5413311" y="4852056"/>
-          <a:ext cx="1776274" cy="74951"/>
+          <a:off x="6604671" y="4861414"/>
+          <a:ext cx="1762619" cy="74951"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
@@ -2695,8 +2695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6615723" y="5220588"/>
-          <a:ext cx="1776273" cy="74951"/>
+          <a:off x="6580449" y="5239363"/>
+          <a:ext cx="1762618" cy="74951"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
@@ -2758,7 +2758,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3759439" y="3733804"/>
-            <a:ext cx="1174370" cy="2331"/>
+            <a:ext cx="2312023" cy="9164"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -2790,15 +2790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30928</xdr:colOff>
+      <xdr:colOff>30929</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>419988</xdr:rowOff>
+      <xdr:rowOff>420002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585513</xdr:colOff>
+      <xdr:colOff>585516</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>494939</xdr:rowOff>
+      <xdr:rowOff>494948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2813,10 +2813,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6628733" y="5400866"/>
-          <a:ext cx="1781219" cy="74951"/>
+          <a:off x="6593460" y="5419655"/>
+          <a:ext cx="1767566" cy="74946"/>
           <a:chOff x="3759439" y="3733804"/>
-          <a:chExt cx="2350978" cy="57430"/>
+          <a:chExt cx="2350980" cy="57426"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2876,7 +2876,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3759439" y="3733804"/>
-            <a:ext cx="1174370" cy="2331"/>
+            <a:ext cx="2297574" cy="4945"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -2931,8 +2931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7235549" y="5727352"/>
-          <a:ext cx="1177426" cy="80564"/>
+          <a:off x="7193447" y="5752954"/>
+          <a:ext cx="1170599" cy="80564"/>
           <a:chOff x="3759439" y="3733804"/>
           <a:chExt cx="1560166" cy="61731"/>
         </a:xfrm>
@@ -2994,7 +2994,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3759439" y="3733804"/>
-            <a:ext cx="777572" cy="6358"/>
+            <a:ext cx="1539546" cy="6713"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -3144,13 +3144,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>45574</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>96858</xdr:rowOff>
+      <xdr:rowOff>139454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>567447</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>96858</xdr:rowOff>
+      <xdr:rowOff>139454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3165,8 +3165,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7849319" y="6468475"/>
-          <a:ext cx="2964596" cy="0"/>
+          <a:off x="7845425" y="6533628"/>
+          <a:ext cx="2964059" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3351,6 +3351,116 @@
               <a:lumMod val="60000"/>
               <a:lumOff val="40000"/>
             </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50421</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601081</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Conector recto 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6ABA40-7109-4DBC-B324-DF6C802998E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7850272" y="6455934"/>
+          <a:ext cx="550660" cy="4501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32827</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Conector recto 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207188B4-2B08-4760-9D29-8D8EA8381393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7844827" y="5967191"/>
+          <a:ext cx="567173" cy="2809"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3673,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5B256-88E9-4922-A594-AB464BAB0D24}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="98" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,7 +3905,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
@@ -3814,7 +3924,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="14"/>
@@ -3833,7 +3943,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="14"/>
@@ -3852,7 +3962,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="14"/>
@@ -3871,7 +3981,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="14"/>
@@ -3890,7 +4000,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="14"/>
@@ -3909,7 +4019,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3928,7 +4038,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3966,7 +4076,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3985,7 +4095,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4004,7 +4114,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4023,7 +4133,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4042,7 +4152,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4061,7 +4171,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4117,8 +4227,8 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
+      <c r="A22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4137,7 +4247,7 @@
     </row>
     <row r="23" spans="1:15" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4155,7 +4265,7 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="6"/>
@@ -4175,7 +4285,7 @@
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4194,7 +4304,7 @@
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4213,7 +4323,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4232,7 +4342,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4251,7 +4361,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4270,7 +4380,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4289,7 +4399,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4327,7 +4437,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
